--- a/input_data/temp_abundance_saiki_2000.xlsx
+++ b/input_data/temp_abundance_saiki_2000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katieirving/Documents/git/flow_eco_mech/input_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05826590-0042-8748-BF44-D49F64098A06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188BBE51-1A37-9447-8D09-D099C8B23C82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3580" yWindow="2560" windowWidth="27240" windowHeight="16440" xr2:uid="{00B722DB-0647-F041-B1D4-DD0C35C32C7C}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$716</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2869" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2871" uniqueCount="39">
   <si>
     <t>Date</t>
   </si>
@@ -148,15 +148,25 @@
   <si>
     <t>Larvae</t>
   </si>
+  <si>
+    <t>Depth (m)</t>
+  </si>
+  <si>
+    <t>Current (m/sec)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.0000000"/>
+    <numFmt numFmtId="167" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -177,6 +187,13 @@
       <color rgb="FF0A0101"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -211,10 +228,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -223,8 +241,13 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -537,19 +560,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6FECA2C-621C-5543-BDAC-1B2E58B50F1D}">
-  <dimension ref="A1:M716"/>
+  <dimension ref="A1:O716"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J721" sqref="J721"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11" style="6"/>
+    <col min="13" max="14" width="11" style="6"/>
+    <col min="15" max="15" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -589,8 +613,14 @@
       <c r="M1" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>36227</v>
       </c>
@@ -631,8 +661,14 @@
       <c r="M2" s="6">
         <v>18.329999999999998</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N2" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="O2">
+        <v>0.4831588</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>36227</v>
       </c>
@@ -673,8 +709,14 @@
       <c r="M3" s="6">
         <v>19.82</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N3" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="O3">
+        <v>0.28295599999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>36227</v>
       </c>
@@ -715,8 +757,14 @@
       <c r="M4" s="6">
         <v>19.93</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N4" s="6">
+        <v>0.17</v>
+      </c>
+      <c r="O4">
+        <v>0.2497328</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>36227</v>
       </c>
@@ -757,8 +805,14 @@
       <c r="M5" s="6">
         <v>19.93</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N5" s="6">
+        <v>0.31</v>
+      </c>
+      <c r="O5">
+        <v>0.69260719999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>36227</v>
       </c>
@@ -799,8 +853,14 @@
       <c r="M6" s="6">
         <v>19.93</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N6" s="6">
+        <v>0.37</v>
+      </c>
+      <c r="O6">
+        <v>0.67056000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>36227</v>
       </c>
@@ -841,8 +901,14 @@
       <c r="M7" s="6">
         <v>19.93</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="6">
+        <v>0.17</v>
+      </c>
+      <c r="O7">
+        <v>0.58237119999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>36227</v>
       </c>
@@ -883,8 +949,14 @@
       <c r="M8" s="6">
         <v>19.96</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="6">
+        <v>0.17</v>
+      </c>
+      <c r="O8">
+        <v>0.2718816</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>36227</v>
       </c>
@@ -925,8 +997,14 @@
       <c r="M9" s="6">
         <v>21.45</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="6">
+        <v>0.34</v>
+      </c>
+      <c r="O9">
+        <v>0.50520600000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>36227</v>
       </c>
@@ -967,8 +1045,14 @@
       <c r="M10" s="6">
         <v>21.45</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="O10">
+        <v>0.29403040000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>36227</v>
       </c>
@@ -1009,8 +1093,14 @@
       <c r="M11" s="6">
         <v>22.27</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="O11">
+        <v>0.36047679999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>36227</v>
       </c>
@@ -1051,8 +1141,14 @@
       <c r="M12" s="6">
         <v>22.2</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="6">
+        <v>0.17</v>
+      </c>
+      <c r="O12">
+        <v>0.47213519999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>36227</v>
       </c>
@@ -1093,8 +1189,14 @@
       <c r="M13" s="6">
         <v>22.2</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="6">
+        <v>0.17</v>
+      </c>
+      <c r="O13">
+        <v>0.32725359999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>36227</v>
       </c>
@@ -1135,8 +1237,14 @@
       <c r="M14" s="6">
         <v>20.53</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="O14">
+        <v>0.16113759999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>36227</v>
       </c>
@@ -1177,8 +1285,14 @@
       <c r="M15" s="6">
         <v>20.6</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="6">
+        <v>0.39</v>
+      </c>
+      <c r="O15">
+        <v>0.46111160000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>36227</v>
       </c>
@@ -1219,8 +1333,14 @@
       <c r="M16" s="6">
         <v>20.6</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="6">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="O16">
+        <v>0.38262560000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>36227</v>
       </c>
@@ -1261,8 +1381,14 @@
       <c r="M17" s="6">
         <v>20.7</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="6">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="O17">
+        <v>0.49418240000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>36227</v>
       </c>
@@ -1303,8 +1429,14 @@
       <c r="M18" s="6">
         <v>17.63</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="6">
+        <v>0.21</v>
+      </c>
+      <c r="O18">
+        <v>0.4831588</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>36227</v>
       </c>
@@ -1345,8 +1477,14 @@
       <c r="M19" s="6">
         <v>17.93</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="6">
+        <v>0.18</v>
+      </c>
+      <c r="O19">
+        <v>0.31617919999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>36227</v>
       </c>
@@ -1387,8 +1525,14 @@
       <c r="M20" s="6">
         <v>17.93</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="6">
+        <v>0.37</v>
+      </c>
+      <c r="O20">
+        <v>0.30510480000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>36141</v>
       </c>
@@ -1429,8 +1573,14 @@
       <c r="M21" s="6">
         <v>15.34</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="6">
+        <v>0.17</v>
+      </c>
+      <c r="O21">
+        <v>0.33832800000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>36141</v>
       </c>
@@ -1471,8 +1621,14 @@
       <c r="M22" s="6">
         <v>15.68</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="O22">
+        <v>0.65953640000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>36141</v>
       </c>
@@ -1513,8 +1669,14 @@
       <c r="M23" s="6">
         <v>15.68</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="O23">
+        <v>0.37155120000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>36141</v>
       </c>
@@ -1555,8 +1717,14 @@
       <c r="M24" s="6">
         <v>15.67</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="6">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="O24">
+        <v>0.38262560000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>36141</v>
       </c>
@@ -1597,8 +1765,14 @@
       <c r="M25" s="6">
         <v>15.67</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="O25">
+        <v>0.50520600000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>36141</v>
       </c>
@@ -1639,8 +1813,14 @@
       <c r="M26" s="6">
         <v>16.09</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="O26">
+        <v>0.52725319999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>36141</v>
       </c>
@@ -1681,8 +1861,14 @@
       <c r="M27" s="6">
         <v>17.77</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="6">
+        <v>0.33</v>
+      </c>
+      <c r="O27">
+        <v>0.60441840000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>36141</v>
       </c>
@@ -1723,8 +1909,14 @@
       <c r="M28" s="6">
         <v>17.760000000000002</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="6">
+        <v>0.21</v>
+      </c>
+      <c r="O28">
+        <v>0.23865839999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>36141</v>
       </c>
@@ -1765,8 +1957,14 @@
       <c r="M29" s="6">
         <v>17.670000000000002</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="6">
+        <v>0.36</v>
+      </c>
+      <c r="O29">
+        <v>0.6485128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>36141</v>
       </c>
@@ -1807,8 +2005,14 @@
       <c r="M30" s="6">
         <v>17.68</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="6">
+        <v>0.23</v>
+      </c>
+      <c r="O30">
+        <v>0.43799759999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>36141</v>
       </c>
@@ -1849,8 +2053,14 @@
       <c r="M31" s="6">
         <v>17.68</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="O31">
+        <v>0.49418240000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>36141</v>
       </c>
@@ -1891,8 +2101,14 @@
       <c r="M32" s="6">
         <v>17.73</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="O32">
+        <v>0.3494024</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>36141</v>
       </c>
@@ -1933,8 +2149,14 @@
       <c r="M33" s="6">
         <v>17.73</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="6">
+        <v>0.13</v>
+      </c>
+      <c r="O33">
+        <v>0.33832800000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>36141</v>
       </c>
@@ -1975,8 +2197,14 @@
       <c r="M34" s="6">
         <v>17.73</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="6">
+        <v>0.19</v>
+      </c>
+      <c r="O34">
+        <v>0.41584880000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>36141</v>
       </c>
@@ -2017,8 +2245,14 @@
       <c r="M35" s="6">
         <v>17.72</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="6">
+        <v>0.18</v>
+      </c>
+      <c r="O35">
+        <v>0.3494024</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>36141</v>
       </c>
@@ -2059,8 +2293,14 @@
       <c r="M36" s="6">
         <v>17.72</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N36" s="6">
+        <v>0.62</v>
+      </c>
+      <c r="O36" s="9">
+        <v>0.67056000000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>36141</v>
       </c>
@@ -2101,8 +2341,14 @@
       <c r="M37" s="6">
         <v>17.75</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N37" s="6">
+        <v>0.19</v>
+      </c>
+      <c r="O37">
+        <v>0.3494024</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>36141</v>
       </c>
@@ -2143,8 +2389,14 @@
       <c r="M38" s="6">
         <v>17.75</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O38">
+        <v>0.1389888</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>36141</v>
       </c>
@@ -2186,7 +2438,7 @@
         <v>17.75</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>36141</v>
       </c>
@@ -2227,8 +2479,14 @@
       <c r="M40" s="6">
         <v>17.739999999999998</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="6">
+        <v>0.16</v>
+      </c>
+      <c r="O40">
+        <v>0.43799759999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>36141</v>
       </c>
@@ -2269,8 +2527,14 @@
       <c r="M41" s="6">
         <v>17.78</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="6">
+        <v>0.17</v>
+      </c>
+      <c r="O41" s="10">
+        <v>0.40477439999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>36141</v>
       </c>
@@ -2311,8 +2575,14 @@
       <c r="M42" s="6">
         <v>17.78</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="O42">
+        <v>0.32725359999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>36141</v>
       </c>
@@ -2353,8 +2623,14 @@
       <c r="M43" s="6">
         <v>19.399999999999999</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="O43">
+        <v>0.46111160000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>36141</v>
       </c>
@@ -2395,8 +2671,14 @@
       <c r="M44" s="6">
         <v>19.399999999999999</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="6">
+        <v>0.24</v>
+      </c>
+      <c r="O44">
+        <v>0.45008799999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>36510</v>
       </c>
@@ -2437,8 +2719,14 @@
       <c r="M45" s="6">
         <v>17.420000000000002</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="6">
+        <v>0.24</v>
+      </c>
+      <c r="O45">
+        <v>0.5933948</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>36510</v>
       </c>
@@ -2479,8 +2767,14 @@
       <c r="M46" s="6">
         <v>16.8</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O46">
+        <v>0.36047679999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>36510</v>
       </c>
@@ -2521,8 +2815,14 @@
       <c r="M47" s="6">
         <v>17.84</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="6">
+        <v>0.37</v>
+      </c>
+      <c r="O47">
+        <v>0.74772519999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>36510</v>
       </c>
@@ -2563,8 +2863,14 @@
       <c r="M48" s="6">
         <v>17.89</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="O48">
+        <v>0.5933948</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>36510</v>
       </c>
@@ -2605,8 +2911,14 @@
       <c r="M49" s="6">
         <v>17.89</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="6">
+        <v>0.27</v>
+      </c>
+      <c r="O49">
+        <v>0.39369999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>36510</v>
       </c>
@@ -2647,8 +2959,14 @@
       <c r="M50" s="6">
         <v>17.89</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="6">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="O50">
+        <v>0.2165096</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>36510</v>
       </c>
@@ -2689,8 +3007,14 @@
       <c r="M51" s="6">
         <v>17.690000000000001</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="O51">
+        <v>0.30510480000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>36510</v>
       </c>
@@ -2731,8 +3055,14 @@
       <c r="M52" s="6">
         <v>17.690000000000001</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="6">
+        <v>0.13</v>
+      </c>
+      <c r="O52">
+        <v>0.41584880000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>36510</v>
       </c>
@@ -2773,8 +3103,14 @@
       <c r="M53" s="6">
         <v>17.91</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="6">
+        <v>0.18</v>
+      </c>
+      <c r="O53">
+        <v>0.32725359999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>36510</v>
       </c>
@@ -2815,8 +3151,14 @@
       <c r="M54" s="6">
         <v>17.899999999999999</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="O54">
+        <v>0.15006320000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>36510</v>
       </c>
@@ -2857,8 +3199,14 @@
       <c r="M55" s="6">
         <v>17.899999999999999</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="6">
+        <v>0.18</v>
+      </c>
+      <c r="O55">
+        <v>9.4691200000000003E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>36510</v>
       </c>
@@ -2899,8 +3247,14 @@
       <c r="M56" s="6">
         <v>14.87</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O56">
+        <v>0.37155120000000003</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>36510</v>
       </c>
@@ -2941,8 +3295,14 @@
       <c r="M57" s="6">
         <v>15.55</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="O57">
+        <v>0.51622959999999996</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>36510</v>
       </c>
@@ -2983,8 +3343,14 @@
       <c r="M58" s="6">
         <v>15.39</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="O58">
+        <v>0.12791440000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>36420</v>
       </c>
@@ -3016,8 +3382,14 @@
         <f t="shared" si="0"/>
         <v>N</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="O59">
+        <v>0.39369999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>36420</v>
       </c>
@@ -3049,8 +3421,14 @@
         <f t="shared" si="0"/>
         <v>N</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="6">
+        <v>0.21</v>
+      </c>
+      <c r="O60">
+        <v>0.2165096</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>36420</v>
       </c>
@@ -3082,8 +3460,14 @@
         <f t="shared" si="0"/>
         <v>N</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="O61">
+        <v>0.45008799999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>36420</v>
       </c>
@@ -3115,8 +3499,14 @@
         <f t="shared" si="0"/>
         <v>N</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="O62">
+        <v>0.63748919999999998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>36420</v>
       </c>
@@ -3148,8 +3538,14 @@
         <f t="shared" si="0"/>
         <v>N</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="6">
+        <v>0.23</v>
+      </c>
+      <c r="O63">
+        <v>0.4269232</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>36420</v>
       </c>
@@ -3181,8 +3577,14 @@
         <f t="shared" si="0"/>
         <v>N</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="6">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="O64">
+        <v>0.57134759999999996</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>36420</v>
       </c>
@@ -3214,8 +3616,14 @@
         <f t="shared" si="0"/>
         <v>N</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="6">
+        <v>0.31</v>
+      </c>
+      <c r="O65">
+        <v>0.5382768</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>36420</v>
       </c>
@@ -3247,8 +3655,14 @@
         <f t="shared" si="0"/>
         <v>N</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="O66">
+        <v>0.5933948</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>36420</v>
       </c>
@@ -3280,8 +3694,14 @@
         <f t="shared" ref="L67:L130" si="1">IF(J67="NB","N","Y")</f>
         <v>N</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="6">
+        <v>0.26</v>
+      </c>
+      <c r="O67">
+        <v>0.49418240000000002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>36420</v>
       </c>
@@ -3313,8 +3733,14 @@
         <f t="shared" si="1"/>
         <v>N</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="6">
+        <v>0.19</v>
+      </c>
+      <c r="O68">
+        <v>0.49418240000000002</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>36420</v>
       </c>
@@ -3346,8 +3772,14 @@
         <f t="shared" si="1"/>
         <v>N</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="6">
+        <v>0.18</v>
+      </c>
+      <c r="O69">
+        <v>0.38262560000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>36420</v>
       </c>
@@ -3379,8 +3811,14 @@
         <f t="shared" si="1"/>
         <v>N</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="O70">
+        <v>0.49418240000000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>36420</v>
       </c>
@@ -3412,8 +3850,14 @@
         <f t="shared" si="1"/>
         <v>N</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O71">
+        <v>0.4269232</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>36420</v>
       </c>
@@ -3445,8 +3889,14 @@
         <f t="shared" si="1"/>
         <v>N</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="6">
+        <v>0.09</v>
+      </c>
+      <c r="O72">
+        <v>0.18328639999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>36420</v>
       </c>
@@ -3478,8 +3928,14 @@
         <f t="shared" si="1"/>
         <v>N</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="6">
+        <v>0.39</v>
+      </c>
+      <c r="O73">
+        <v>0.63748919999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>36420</v>
       </c>
@@ -3511,8 +3967,14 @@
         <f t="shared" si="1"/>
         <v>N</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="O74">
+        <v>0.36047679999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>36420</v>
       </c>
@@ -3544,8 +4006,14 @@
         <f t="shared" si="1"/>
         <v>N</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="6">
+        <v>0.16</v>
+      </c>
+      <c r="O75">
+        <v>0.22758400000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>36420</v>
       </c>
@@ -3577,8 +4045,14 @@
         <f t="shared" si="1"/>
         <v>N</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="6">
+        <v>0.26</v>
+      </c>
+      <c r="O76">
+        <v>0.30510480000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>36420</v>
       </c>
@@ -3610,8 +4084,14 @@
         <f t="shared" si="1"/>
         <v>N</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="6">
+        <v>0.23</v>
+      </c>
+      <c r="O77">
+        <v>0.57134759999999996</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>36420</v>
       </c>
@@ -3643,8 +4123,14 @@
         <f t="shared" si="1"/>
         <v>N</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N78" s="6">
+        <v>0.19</v>
+      </c>
+      <c r="O78">
+        <v>0.50520600000000004</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>36420</v>
       </c>
@@ -3676,8 +4162,14 @@
         <f t="shared" si="1"/>
         <v>N</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N79" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="O79">
+        <v>0.36047679999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>36420</v>
       </c>
@@ -3718,8 +4210,14 @@
       <c r="M80" s="6">
         <v>22.47</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="6">
+        <v>0.16</v>
+      </c>
+      <c r="O80">
+        <v>0.31617919999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>36420</v>
       </c>
@@ -3757,8 +4255,14 @@
       <c r="M81" s="6">
         <v>22.5</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="O81" s="10">
+        <v>0.47213519999999998</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>36420</v>
       </c>
@@ -3799,8 +4303,14 @@
       <c r="M82" s="6">
         <v>22.14</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="6">
+        <v>0.21</v>
+      </c>
+      <c r="O82">
+        <v>0.52725319999999998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>36420</v>
       </c>
@@ -3841,8 +4351,14 @@
       <c r="M83" s="6">
         <v>22.14</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="6">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="O83">
+        <v>0.54930040000000002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>36420</v>
       </c>
@@ -3883,8 +4399,14 @@
       <c r="M84" s="6">
         <v>22.7</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="6">
+        <v>0.18</v>
+      </c>
+      <c r="O84">
+        <v>9.4691200000000003E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>36420</v>
       </c>
@@ -3925,8 +4447,14 @@
       <c r="M85" s="6">
         <v>22.78</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="6">
+        <v>0.12</v>
+      </c>
+      <c r="O85">
+        <v>0.40477439999999998</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>36420</v>
       </c>
@@ -3968,7 +4496,7 @@
         <v>22.08</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>36420</v>
       </c>
@@ -4009,8 +4537,14 @@
       <c r="M87" s="6">
         <v>22.08</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="6">
+        <v>0.21</v>
+      </c>
+      <c r="O87">
+        <v>0.30510480000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>36420</v>
       </c>
@@ -4051,8 +4585,14 @@
       <c r="M88" s="6">
         <v>19.36</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="O88">
+        <v>0.5382768</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>36420</v>
       </c>
@@ -4093,8 +4633,14 @@
       <c r="M89" s="6">
         <v>19.48</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="O89">
+        <v>0.36047679999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>36420</v>
       </c>
@@ -4135,8 +4681,14 @@
       <c r="M90" s="6">
         <v>20.11</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="O90">
+        <v>0.31617919999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>36420</v>
       </c>
@@ -4177,8 +4729,14 @@
       <c r="M91" s="6">
         <v>22.14</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="O91">
+        <v>0.5382768</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>36420</v>
       </c>
@@ -4219,8 +4777,14 @@
       <c r="M92" s="6">
         <v>22.14</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="O92">
+        <v>0.41584880000000002</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>36420</v>
       </c>
@@ -4261,8 +4825,14 @@
       <c r="M93" s="6">
         <v>22.14</v>
       </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="6">
+        <v>0.13</v>
+      </c>
+      <c r="O93">
+        <v>0.31617919999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>36420</v>
       </c>
@@ -4303,8 +4873,14 @@
       <c r="M94" s="6">
         <v>22.14</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="O94">
+        <v>0.38262560000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>36420</v>
       </c>
@@ -4345,8 +4921,14 @@
       <c r="M95" s="6">
         <v>22.17</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="6">
+        <v>0.17</v>
+      </c>
+      <c r="O95">
+        <v>0.46111160000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>36420</v>
       </c>
@@ -4387,8 +4969,14 @@
       <c r="M96" s="6">
         <v>22.17</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="6">
+        <v>0.23</v>
+      </c>
+      <c r="O96">
+        <v>0.65953640000000002</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>36420</v>
       </c>
@@ -4430,7 +5018,7 @@
         <v>22.17</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>36420</v>
       </c>
@@ -4471,8 +5059,14 @@
       <c r="M98" s="6">
         <v>22.14</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="O98">
+        <v>0.4269232</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>36331</v>
       </c>
@@ -4513,8 +5107,14 @@
       <c r="M99" s="6">
         <v>25.03</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="6">
+        <v>0.19</v>
+      </c>
+      <c r="O99">
+        <v>0.26080720000000002</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>36331</v>
       </c>
@@ -4555,8 +5155,14 @@
       <c r="M100" s="6">
         <v>25.02</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O100">
+        <v>0.3494024</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>36331</v>
       </c>
@@ -4597,8 +5203,14 @@
       <c r="M101" s="6">
         <v>25.02</v>
       </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="6">
+        <v>0.17</v>
+      </c>
+      <c r="O101">
+        <v>0.2497328</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>36331</v>
       </c>
@@ -4639,8 +5251,14 @@
       <c r="M102" s="6">
         <v>25.02</v>
       </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N102" s="6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O102">
+        <v>0.33832800000000002</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>36331</v>
       </c>
@@ -4681,8 +5299,14 @@
       <c r="M103" s="6">
         <v>25.02</v>
       </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N103" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="O103">
+        <v>0.18328639999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>36331</v>
       </c>
@@ -4723,8 +5347,14 @@
       <c r="M104" s="6">
         <v>24.92</v>
       </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N104" s="6">
+        <v>0.31</v>
+      </c>
+      <c r="O104">
+        <v>0.62646559999999996</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>36331</v>
       </c>
@@ -4765,8 +5395,14 @@
       <c r="M105" s="6">
         <v>24.85</v>
       </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N105" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="O105">
+        <v>0.56032400000000004</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>36331</v>
       </c>
@@ -4807,8 +5443,14 @@
       <c r="M106" s="6">
         <v>25.07</v>
       </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N106" s="6">
+        <v>0.11</v>
+      </c>
+      <c r="O106">
+        <v>0.11684</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>36331</v>
       </c>
@@ -4849,8 +5491,14 @@
       <c r="M107" s="6">
         <v>25.25</v>
       </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N107" s="6">
+        <v>0.47</v>
+      </c>
+      <c r="O107">
+        <v>0.63748919999999998</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>36331</v>
       </c>
@@ -4891,8 +5539,14 @@
       <c r="M108" s="6">
         <v>25.53</v>
       </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N108" s="6">
+        <v>0.21</v>
+      </c>
+      <c r="O108">
+        <v>0.31617919999999999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>36331</v>
       </c>
@@ -4933,8 +5587,14 @@
       <c r="M109" s="6">
         <v>27.8</v>
       </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N109" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="O109">
+        <v>0.3494024</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>36331</v>
       </c>
@@ -4975,8 +5635,14 @@
       <c r="M110" s="6">
         <v>21.7</v>
       </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N110" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="O110">
+        <v>0.45008799999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>36331</v>
       </c>
@@ -5017,8 +5683,14 @@
       <c r="M111" s="6">
         <v>22.23</v>
       </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N111" s="6">
+        <v>0.23</v>
+      </c>
+      <c r="O111">
+        <v>0.32725359999999998</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>36331</v>
       </c>
@@ -5059,8 +5731,14 @@
       <c r="M112" s="6">
         <v>2248</v>
       </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N112" s="6">
+        <v>0.35</v>
+      </c>
+      <c r="O112">
+        <v>0.43799759999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>36331</v>
       </c>
@@ -5101,8 +5779,14 @@
       <c r="M113" s="6">
         <v>22.48</v>
       </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N113" s="6">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="O113">
+        <v>0.46111160000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>36228</v>
       </c>
@@ -5143,8 +5827,14 @@
       <c r="M114" s="6">
         <v>17.04</v>
       </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N114" s="6">
+        <v>0.19</v>
+      </c>
+      <c r="O114">
+        <v>9.4691200000000003E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>36228</v>
       </c>
@@ -5185,8 +5875,14 @@
       <c r="M115" s="6">
         <v>16.739999999999998</v>
       </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N115" s="6">
+        <v>0.31</v>
+      </c>
+      <c r="O115">
+        <v>0.3494024</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>36228</v>
       </c>
@@ -5227,8 +5923,14 @@
       <c r="M116" s="6">
         <v>17.100000000000001</v>
       </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N116" s="6">
+        <v>0.35</v>
+      </c>
+      <c r="O116">
+        <v>0.11684</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>36228</v>
       </c>
@@ -5269,8 +5971,14 @@
       <c r="M117" s="6">
         <v>17.149999999999999</v>
       </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N117" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="O117" s="10">
+        <v>0.73670159999999996</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>36228</v>
       </c>
@@ -5311,8 +6019,14 @@
       <c r="M118" s="6">
         <v>18.190000000000001</v>
       </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N118" s="6">
+        <v>0.31</v>
+      </c>
+      <c r="O118">
+        <v>0.74772519999999998</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>36228</v>
       </c>
@@ -5353,8 +6067,14 @@
       <c r="M119" s="6">
         <v>18.190000000000001</v>
       </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N119" s="6">
+        <v>0.19</v>
+      </c>
+      <c r="O119">
+        <v>0.31617919999999999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>36228</v>
       </c>
@@ -5395,8 +6115,14 @@
       <c r="M120" s="6">
         <v>18.190000000000001</v>
       </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N120" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="O120">
+        <v>0.43799759999999999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>36228</v>
       </c>
@@ -5437,8 +6163,14 @@
       <c r="M121" s="6">
         <v>18.190000000000001</v>
       </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N121" s="6">
+        <v>0.18</v>
+      </c>
+      <c r="O121" s="9">
+        <v>0.11684</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>36228</v>
       </c>
@@ -5479,8 +6211,14 @@
       <c r="M122" s="6">
         <v>18.32</v>
       </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N122" s="6">
+        <v>0.27</v>
+      </c>
+      <c r="O122">
+        <v>0.29403040000000003</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>36228</v>
       </c>
@@ -5521,8 +6259,14 @@
       <c r="M123" s="6">
         <v>18.28</v>
       </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N123" s="6">
+        <v>0.26</v>
+      </c>
+      <c r="O123">
+        <v>0.41584880000000002</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>36228</v>
       </c>
@@ -5563,8 +6307,14 @@
       <c r="M124" s="6">
         <v>18.28</v>
       </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N124" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="O124" s="10">
+        <v>0.3494024</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>36228</v>
       </c>
@@ -5605,8 +6355,14 @@
       <c r="M125" s="6">
         <v>20.059999999999999</v>
       </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N125" s="6">
+        <v>0.37</v>
+      </c>
+      <c r="O125">
+        <v>0.172212</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>36228</v>
       </c>
@@ -5647,8 +6403,14 @@
       <c r="M126" s="6">
         <v>20.059999999999999</v>
       </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N126" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="O126">
+        <v>0.94615000000000005</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>36228</v>
       </c>
@@ -5689,8 +6451,14 @@
       <c r="M127" s="6">
         <v>20.059999999999999</v>
       </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N127" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="O127" s="10">
+        <v>0.90205559999999996</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>36228</v>
       </c>
@@ -5731,8 +6499,14 @@
       <c r="M128" s="6">
         <v>20.059999999999999</v>
       </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N128" s="6">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="O128">
+        <v>0.63748919999999998</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>36228</v>
       </c>
@@ -5773,8 +6547,14 @@
       <c r="M129" s="6">
         <v>19.7</v>
       </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N129" s="6">
+        <v>0.18</v>
+      </c>
+      <c r="O129">
+        <v>0.45008799999999999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>36228</v>
       </c>
@@ -5815,8 +6595,14 @@
       <c r="M130" s="6">
         <v>20.12</v>
       </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N130" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="O130">
+        <v>0.23865839999999999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>36228</v>
       </c>
@@ -5857,8 +6643,14 @@
       <c r="M131" s="6">
         <v>20.12</v>
       </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N131" s="6">
+        <v>0.35</v>
+      </c>
+      <c r="O131">
+        <v>0.31617919999999999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>36228</v>
       </c>
@@ -5899,8 +6691,14 @@
       <c r="M132" s="6">
         <v>20.76</v>
       </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N132" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="O132" s="11">
+        <v>0.50520600000000004</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>36228</v>
       </c>
@@ -5941,8 +6739,14 @@
       <c r="M133" s="6">
         <v>20.48</v>
       </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N133" s="6">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="O133">
+        <v>0.26080720000000002</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>36228</v>
       </c>
@@ -5983,8 +6787,14 @@
       <c r="M134" s="6">
         <v>20.58</v>
       </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N134" s="6">
+        <v>0.23</v>
+      </c>
+      <c r="O134">
+        <v>0.95717359999999996</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>36228</v>
       </c>
@@ -6025,8 +6835,14 @@
       <c r="M135" s="6">
         <v>18.829999999999998</v>
       </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N135" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="O135">
+        <v>0.31617919999999999</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>36228</v>
       </c>
@@ -6067,8 +6883,14 @@
       <c r="M136" s="6">
         <v>18.829999999999998</v>
       </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N136" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="O136">
+        <v>0.41584880000000002</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>36228</v>
       </c>
@@ -6109,8 +6931,14 @@
       <c r="M137" s="6">
         <v>18.690000000000001</v>
       </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N137" s="6">
+        <v>0.26</v>
+      </c>
+      <c r="O137">
+        <v>5.0393599999999997E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>36228</v>
       </c>
@@ -6151,8 +6979,14 @@
       <c r="M138" s="6">
         <v>18.63</v>
       </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N138" s="6">
+        <v>0.87</v>
+      </c>
+      <c r="O138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>36228</v>
       </c>
@@ -6193,8 +7027,14 @@
       <c r="M139" s="6">
         <v>18.36</v>
       </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N139" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="O139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>36228</v>
       </c>
@@ -6232,8 +7072,14 @@
       <c r="M140" s="6">
         <v>18.399999999999999</v>
       </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N140" s="6">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="O140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>36228</v>
       </c>
@@ -6274,8 +7120,14 @@
       <c r="M141" s="6">
         <v>18.260000000000002</v>
       </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N141" s="6">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="O141">
+        <v>3.9319199999999999E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>36228</v>
       </c>
@@ -6316,8 +7168,14 @@
       <c r="M142" s="6">
         <v>16.95</v>
       </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N142" s="6">
+        <v>0.47</v>
+      </c>
+      <c r="O142">
+        <v>0.30510480000000001</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>36228</v>
       </c>
@@ -6358,8 +7216,14 @@
       <c r="M143" s="6">
         <v>16.95</v>
       </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N143" s="6">
+        <v>0.31</v>
+      </c>
+      <c r="O143">
+        <v>9.4691200000000003E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>36228</v>
       </c>
@@ -6400,8 +7264,14 @@
       <c r="M144" s="6">
         <v>16.95</v>
       </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N144" s="6">
+        <v>0.36</v>
+      </c>
+      <c r="O144">
+        <v>0.28295599999999999</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>36228</v>
       </c>
@@ -6442,8 +7312,14 @@
       <c r="M145" s="6">
         <v>17.010000000000002</v>
       </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N145" s="6">
+        <v>3.9319199999999999E-2</v>
+      </c>
+      <c r="O145" s="10">
+        <v>3.9319199999999999E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>36228</v>
       </c>
@@ -6484,8 +7360,14 @@
       <c r="M146" s="6">
         <v>17.02</v>
       </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N146" s="6">
+        <v>0.52</v>
+      </c>
+      <c r="O146">
+        <v>0.1389888</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <v>36143</v>
       </c>
@@ -6520,8 +7402,14 @@
         <f t="shared" si="2"/>
         <v>N</v>
       </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N147" s="6">
+        <v>0.17</v>
+      </c>
+      <c r="O147">
+        <v>0.72567800000000005</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>36143</v>
       </c>
@@ -6562,8 +7450,14 @@
       <c r="M148" s="6">
         <v>13.35</v>
       </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N148" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="O148">
+        <v>0.3494024</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>36143</v>
       </c>
@@ -6604,8 +7498,14 @@
       <c r="M149" s="6">
         <v>13.35</v>
       </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N149" s="6">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="O149">
+        <v>0.41584880000000002</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>36143</v>
       </c>
@@ -6646,8 +7546,14 @@
       <c r="M150" s="6">
         <v>13.35</v>
       </c>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N150" s="6">
+        <v>0.23</v>
+      </c>
+      <c r="O150">
+        <v>0.32725359999999998</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>36143</v>
       </c>
@@ -6688,8 +7594,14 @@
       <c r="M151" s="6">
         <v>13.46</v>
       </c>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N151" s="6">
+        <v>0.44</v>
+      </c>
+      <c r="O151">
+        <v>0.2165096</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>36143</v>
       </c>
@@ -6730,8 +7642,14 @@
       <c r="M152" s="6">
         <v>14.6</v>
       </c>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N152" s="6">
+        <v>0.38</v>
+      </c>
+      <c r="O152">
+        <v>0.28295599999999999</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>36143</v>
       </c>
@@ -6772,8 +7690,14 @@
       <c r="M153" s="6">
         <v>14.62</v>
       </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N153" s="6">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="O153">
+        <v>0.36047679999999999</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>36143</v>
       </c>
@@ -6814,8 +7738,14 @@
       <c r="M154" s="6">
         <v>16.440000000000001</v>
       </c>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N154" s="6">
+        <v>0.53</v>
+      </c>
+      <c r="O154">
+        <v>9.4691200000000003E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>36143</v>
       </c>
@@ -6856,8 +7786,14 @@
       <c r="M155" s="6">
         <v>16.32</v>
       </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N155" s="6">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="O155">
+        <v>8.3616800000000005E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>36143</v>
       </c>
@@ -6898,8 +7834,14 @@
       <c r="M156" s="6">
         <v>16.34</v>
       </c>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N156" s="6">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="O156">
+        <v>0.26080720000000002</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>36143</v>
       </c>
@@ -6940,8 +7882,14 @@
       <c r="M157" s="6">
         <v>18.46</v>
       </c>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N157" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="O157">
+        <v>0.22758400000000001</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>36143</v>
       </c>
@@ -6982,8 +7930,14 @@
       <c r="M158" s="6">
         <v>18.420000000000002</v>
       </c>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N158" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="O158">
+        <v>0.5382768</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>36143</v>
       </c>
@@ -7024,8 +7978,14 @@
       <c r="M159" s="6">
         <v>18.36</v>
       </c>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N159" s="6">
+        <v>0.23</v>
+      </c>
+      <c r="O159" s="10">
+        <v>0.52725319999999998</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>36143</v>
       </c>
@@ -7066,8 +8026,14 @@
       <c r="M160" s="6">
         <v>18.329999999999998</v>
       </c>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N160" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="O160">
+        <v>0.4269232</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <v>36143</v>
       </c>
@@ -7108,8 +8074,14 @@
       <c r="M161" s="6">
         <v>12.48</v>
       </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N161" s="6">
+        <v>0.26</v>
+      </c>
+      <c r="O161">
+        <v>5.0393599999999997E-2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
         <v>36419</v>
       </c>
@@ -7141,8 +8113,14 @@
         <f t="shared" si="2"/>
         <v>N</v>
       </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N162" s="6">
+        <v>0.24</v>
+      </c>
+      <c r="O162" s="10">
+        <v>0.5382768</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
         <v>36419</v>
       </c>
@@ -7174,8 +8152,14 @@
         <f t="shared" si="2"/>
         <v>N</v>
       </c>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N163" s="6">
+        <v>0.35</v>
+      </c>
+      <c r="O163">
+        <v>6.1468000000000002E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
         <v>36419</v>
       </c>
@@ -7216,8 +8200,14 @@
       <c r="M164" s="6">
         <v>20.170000000000002</v>
       </c>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N164" s="6">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="O164">
+        <v>3.9319199999999999E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
         <v>36419</v>
       </c>
@@ -7259,7 +8249,7 @@
         <v>20.420000000000002</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
         <v>36419</v>
       </c>
@@ -7300,8 +8290,14 @@
       <c r="M166" s="6">
         <v>20.16</v>
       </c>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N166" s="6">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="O166">
+        <v>3.9319199999999999E-2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
         <v>36419</v>
       </c>
@@ -7342,8 +8338,14 @@
       <c r="M167" s="6">
         <v>18.940000000000001</v>
       </c>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N167" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="O167">
+        <v>8.3616800000000005E-2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
         <v>36419</v>
       </c>
@@ -7384,8 +8386,14 @@
       <c r="M168" s="6">
         <v>19.05</v>
       </c>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N168" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="O168">
+        <v>0.18328639999999999</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
         <v>36419</v>
       </c>
@@ -7426,8 +8434,14 @@
       <c r="M169" s="6">
         <v>18.920000000000002</v>
       </c>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N169" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="O169">
+        <v>0.71465440000000002</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
         <v>36511</v>
       </c>
@@ -7468,8 +8482,14 @@
       <c r="M170" s="6">
         <v>15.28</v>
       </c>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N170" s="6">
+        <v>0.27</v>
+      </c>
+      <c r="O170">
+        <v>1.0784332000000001</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
         <v>36511</v>
       </c>
@@ -7510,8 +8530,14 @@
       <c r="M171" s="6">
         <v>13.07</v>
       </c>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N171" s="6">
+        <v>0.39</v>
+      </c>
+      <c r="O171">
+        <v>0.1057656</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
         <v>36332</v>
       </c>
@@ -7552,8 +8578,14 @@
       <c r="M172" s="6">
         <v>29.24</v>
       </c>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N172" s="6">
+        <v>0.21</v>
+      </c>
+      <c r="O172" s="10">
+        <v>0.18328639999999999</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
         <v>36332</v>
       </c>
@@ -7594,8 +8626,14 @@
       <c r="M173" s="6">
         <v>28.61</v>
       </c>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N173" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="O173">
+        <v>0.4269232</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
         <v>36332</v>
       </c>
@@ -7636,8 +8674,14 @@
       <c r="M174" s="6">
         <v>21.83</v>
       </c>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N174" s="6">
+        <v>0.35</v>
+      </c>
+      <c r="O174">
+        <v>0.15006320000000001</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
         <v>36332</v>
       </c>
@@ -7678,8 +8722,14 @@
       <c r="M175" s="6">
         <v>21.83</v>
       </c>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N175" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="O175">
+        <v>0.4269232</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
         <v>36332</v>
       </c>
@@ -7720,8 +8770,14 @@
       <c r="M176" s="6">
         <v>22.25</v>
       </c>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N176" s="6">
+        <v>0.21</v>
+      </c>
+      <c r="O176">
+        <v>0.30510480000000001</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
         <v>36332</v>
       </c>
@@ -7762,8 +8818,14 @@
       <c r="M177" s="6">
         <v>22.61</v>
       </c>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N177" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="O177">
+        <v>0.2165096</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
         <v>36332</v>
       </c>
@@ -7804,8 +8866,14 @@
       <c r="M178" s="6">
         <v>22.61</v>
       </c>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N178" s="6">
+        <v>0.18</v>
+      </c>
+      <c r="O178">
+        <v>0.12791440000000001</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
         <v>36332</v>
       </c>
@@ -7846,8 +8914,14 @@
       <c r="M179" s="6">
         <v>22.42</v>
       </c>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N179" s="6">
+        <v>0.21</v>
+      </c>
+      <c r="O179">
+        <v>0.1389888</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
         <v>36332</v>
       </c>
@@ -7888,8 +8962,11 @@
       <c r="M180" s="6">
         <v>22.61</v>
       </c>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N180" s="6">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
         <v>36332</v>
       </c>
@@ -7930,8 +9007,14 @@
       <c r="M181" s="6">
         <v>22.45</v>
       </c>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N181" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="O181">
+        <v>0.38262560000000001</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
         <v>36332</v>
       </c>
@@ -7972,8 +9055,14 @@
       <c r="M182" s="6">
         <v>22.45</v>
       </c>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N182" s="6">
+        <v>0.35</v>
+      </c>
+      <c r="O182">
+        <v>0.32725359999999998</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
         <v>36229</v>
       </c>
@@ -8014,8 +9103,14 @@
       <c r="M183" s="6">
         <v>9.15</v>
       </c>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N183" s="6">
+        <v>0.41</v>
+      </c>
+      <c r="O183" s="10">
+        <v>0.37155120000000003</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
         <v>36229</v>
       </c>
@@ -8056,8 +9151,14 @@
       <c r="M184" s="6">
         <v>9.36</v>
       </c>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N184" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="O184">
+        <v>0.1389888</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
         <v>36230</v>
       </c>
@@ -8098,8 +9199,14 @@
       <c r="M185" s="6">
         <v>9.85</v>
       </c>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N185" s="6">
+        <v>0.33</v>
+      </c>
+      <c r="O185">
+        <v>0.12791440000000001</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
         <v>36508</v>
       </c>
@@ -8140,8 +9247,14 @@
       <c r="M186" s="6">
         <v>7.97</v>
       </c>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N186" s="6">
+        <v>0.39</v>
+      </c>
+      <c r="O186">
+        <v>0.1057656</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
         <v>36508</v>
       </c>
@@ -8182,8 +9295,14 @@
       <c r="M187" s="6">
         <v>8.01</v>
       </c>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N187" s="6">
+        <v>0.38</v>
+      </c>
+      <c r="O187">
+        <v>0.2497328</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
         <v>36508</v>
       </c>
@@ -8224,8 +9343,14 @@
       <c r="M188" s="6">
         <v>8.06</v>
       </c>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N188" s="6">
+        <v>0.43</v>
+      </c>
+      <c r="O188">
+        <v>0.23865839999999999</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
         <v>36508</v>
       </c>
@@ -8266,8 +9391,14 @@
       <c r="M189" s="6">
         <v>8.36</v>
       </c>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N189" s="6">
+        <v>0.24</v>
+      </c>
+      <c r="O189">
+        <v>1.7170399999999999E-2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
         <v>36508</v>
       </c>
@@ -8308,8 +9439,14 @@
       <c r="M190" s="6">
         <v>8.36</v>
       </c>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N190" s="6">
+        <v>0.49</v>
+      </c>
+      <c r="O190">
+        <v>0.62646559999999996</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
         <v>36508</v>
       </c>
@@ -8350,8 +9487,14 @@
       <c r="M191" s="6">
         <v>8.3699999999999992</v>
       </c>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N191" s="6">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="O191">
+        <v>3.9319199999999999E-2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
         <v>36508</v>
       </c>
@@ -8392,8 +9535,14 @@
       <c r="M192" s="6">
         <v>8.9600000000000009</v>
       </c>
-    </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N192" s="6">
+        <v>0.18</v>
+      </c>
+      <c r="O192">
+        <v>5.0393599999999997E-2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
         <v>36508</v>
       </c>
@@ -8434,8 +9583,14 @@
       <c r="M193" s="6">
         <v>8.74</v>
       </c>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N193" s="6">
+        <v>0.39</v>
+      </c>
+      <c r="O193">
+        <v>3.9319199999999999E-2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
         <v>36508</v>
       </c>
@@ -8476,8 +9631,14 @@
       <c r="M194" s="6">
         <v>8.74</v>
       </c>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N194" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="O194">
+        <v>0.20543520000000001</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
         <v>36508</v>
       </c>
@@ -8518,8 +9679,14 @@
       <c r="M195" s="6">
         <v>8.74</v>
       </c>
-    </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N195" s="6">
+        <v>0.36</v>
+      </c>
+      <c r="O195">
+        <v>2.82448E-2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
         <v>36508</v>
       </c>
@@ -8560,8 +9727,14 @@
       <c r="M196" s="6">
         <v>8.74</v>
       </c>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N196" s="6">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="O196">
+        <v>0.62646559999999996</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
         <v>36508</v>
       </c>
@@ -8602,8 +9775,14 @@
       <c r="M197" s="6">
         <v>8.74</v>
       </c>
-    </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N197" s="6">
+        <v>0.42</v>
+      </c>
+      <c r="O197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
         <v>36508</v>
       </c>
@@ -8644,8 +9823,14 @@
       <c r="M198" s="6">
         <v>8.74</v>
       </c>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N198" s="6">
+        <v>0.51</v>
+      </c>
+      <c r="O198">
+        <v>0.91307919999999998</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
         <v>36508</v>
       </c>
@@ -8686,8 +9871,14 @@
       <c r="M199" s="6">
         <v>8.74</v>
       </c>
-    </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N199" s="6">
+        <v>0.36</v>
+      </c>
+      <c r="O199" s="10">
+        <v>0.18328639999999999</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
         <v>36508</v>
       </c>
@@ -8728,8 +9919,14 @@
       <c r="M200">
         <v>8.74</v>
       </c>
-    </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N200" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="O200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
         <v>36508</v>
       </c>
@@ -8770,8 +9967,14 @@
       <c r="M201" s="6">
         <v>8.74</v>
       </c>
-    </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N201" s="6">
+        <v>0.36</v>
+      </c>
+      <c r="O201">
+        <v>0.43799759999999999</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
         <v>36508</v>
       </c>
@@ -8812,8 +10015,14 @@
       <c r="M202" s="6">
         <v>8.74</v>
       </c>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N202" s="6">
+        <v>0.91</v>
+      </c>
+      <c r="O202">
+        <v>0.22758400000000001</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
         <v>36508</v>
       </c>
@@ -8854,8 +10063,14 @@
       <c r="M203" s="6">
         <v>8.74</v>
       </c>
-    </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N203" s="6">
+        <v>0.86</v>
+      </c>
+      <c r="O203">
+        <v>0.36047679999999999</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
         <v>36508</v>
       </c>
@@ -8896,8 +10111,14 @@
       <c r="M204" s="6">
         <v>8.81</v>
       </c>
-    </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N204" s="6">
+        <v>0.48</v>
+      </c>
+      <c r="O204">
+        <v>0.73670159999999996</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
         <v>36508</v>
       </c>
@@ -8938,8 +10159,14 @@
       <c r="M205" s="6">
         <v>8.81</v>
       </c>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N205" s="6">
+        <v>0.38</v>
+      </c>
+      <c r="O205">
+        <v>1.1776456</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
         <v>36508</v>
       </c>
@@ -8980,8 +10207,14 @@
       <c r="M206" s="6">
         <v>8.82</v>
       </c>
-    </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N206" s="6">
+        <v>0.47</v>
+      </c>
+      <c r="O206">
+        <v>1.0233152000000001</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
         <v>36508</v>
       </c>
@@ -9022,8 +10255,14 @@
       <c r="M207" s="6">
         <v>8.82</v>
       </c>
-    </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N207" s="6">
+        <v>0.41</v>
+      </c>
+      <c r="O207">
+        <v>0.20543520000000001</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
         <v>36508</v>
       </c>
@@ -9064,8 +10303,14 @@
       <c r="M208" s="6">
         <v>8.84</v>
       </c>
-    </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N208" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="O208" s="10">
+        <v>1.1555983999999999</v>
+      </c>
+    </row>
+    <row r="209" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
         <v>36508</v>
       </c>
@@ -9106,8 +10351,14 @@
       <c r="M209" s="6">
         <v>8.84</v>
       </c>
-    </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N209" s="6">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="O209">
+        <v>0.52725319999999998</v>
+      </c>
+    </row>
+    <row r="210" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
         <v>36508</v>
       </c>
@@ -9148,8 +10399,14 @@
       <c r="M210" s="6">
         <v>9.57</v>
       </c>
-    </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N210" s="6">
+        <v>0.38</v>
+      </c>
+      <c r="O210">
+        <v>0.38262560000000001</v>
+      </c>
+    </row>
+    <row r="211" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
         <v>36508</v>
       </c>
@@ -9190,8 +10447,14 @@
       <c r="M211" s="6">
         <v>9.56</v>
       </c>
-    </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N211" s="6">
+        <v>0.54</v>
+      </c>
+      <c r="O211">
+        <v>0.11684</v>
+      </c>
+    </row>
+    <row r="212" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
         <v>36508</v>
       </c>
@@ -9232,8 +10495,14 @@
       <c r="M212" s="6">
         <v>9.56</v>
       </c>
-    </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N212" s="6">
+        <v>0.34</v>
+      </c>
+      <c r="O212">
+        <v>7.2542400000000007E-2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
         <v>36508</v>
       </c>
@@ -9274,8 +10543,14 @@
       <c r="M213" s="6">
         <v>9.56</v>
       </c>
-    </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N213" s="6">
+        <v>0.21</v>
+      </c>
+      <c r="O213">
+        <v>0.63748919999999998</v>
+      </c>
+    </row>
+    <row r="214" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
         <v>36508</v>
       </c>
@@ -9316,8 +10591,14 @@
       <c r="M214" s="6">
         <v>9.56</v>
       </c>
-    </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N214" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="O214">
+        <v>0.38262560000000001</v>
+      </c>
+    </row>
+    <row r="215" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
         <v>36508</v>
       </c>
@@ -9358,8 +10639,14 @@
       <c r="M215" s="6">
         <v>9.56</v>
       </c>
-    </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N215" s="6">
+        <v>0.83</v>
+      </c>
+      <c r="O215">
+        <v>0.18328639999999999</v>
+      </c>
+    </row>
+    <row r="216" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
         <v>36508</v>
       </c>
@@ -9400,8 +10687,14 @@
       <c r="M216" s="6">
         <v>9.5500000000000007</v>
       </c>
-    </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N216" s="6">
+        <v>0.54</v>
+      </c>
+      <c r="O216">
+        <v>0.54930040000000002</v>
+      </c>
+    </row>
+    <row r="217" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
         <v>36508</v>
       </c>
@@ -9442,8 +10735,14 @@
       <c r="M217" s="6">
         <v>9.5399999999999991</v>
       </c>
-    </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N217" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="O217" s="10">
+        <v>0.26080720000000002</v>
+      </c>
+    </row>
+    <row r="218" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
         <v>36508</v>
       </c>
@@ -9484,8 +10783,14 @@
       <c r="M218" s="6">
         <v>9.5399999999999991</v>
       </c>
-    </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N218" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="O218">
+        <v>1.2437872000000001</v>
+      </c>
+    </row>
+    <row r="219" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
         <v>36508</v>
       </c>
@@ -9526,8 +10831,14 @@
       <c r="M219" s="6">
         <v>9.5399999999999991</v>
       </c>
-    </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N219" s="6">
+        <v>0.21</v>
+      </c>
+      <c r="O219" s="10">
+        <v>1.1996928</v>
+      </c>
+    </row>
+    <row r="220" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
         <v>36508</v>
       </c>
@@ -9568,8 +10879,14 @@
       <c r="M220" s="6">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N220" s="6">
+        <v>0.27</v>
+      </c>
+      <c r="O220">
+        <v>0.68158359999999996</v>
+      </c>
+    </row>
+    <row r="221" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A221" s="2">
         <v>36508</v>
       </c>
@@ -9610,8 +10927,14 @@
       <c r="M221" s="6">
         <v>9.59</v>
       </c>
-    </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N221" s="6">
+        <v>0.42</v>
+      </c>
+      <c r="O221">
+        <v>0.67056000000000004</v>
+      </c>
+    </row>
+    <row r="222" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A222" s="2">
         <v>36508</v>
       </c>
@@ -9652,8 +10975,14 @@
       <c r="M222" s="6">
         <v>9.6199999999999992</v>
       </c>
-    </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N222" s="6">
+        <v>0.34</v>
+      </c>
+      <c r="O222">
+        <v>0.28295599999999999</v>
+      </c>
+    </row>
+    <row r="223" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A223" s="2">
         <v>36508</v>
       </c>
@@ -9694,8 +11023,14 @@
       <c r="M223" s="6">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N223" s="6">
+        <v>0.18</v>
+      </c>
+      <c r="O223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A224" s="2">
         <v>36508</v>
       </c>
@@ -9736,8 +11071,14 @@
       <c r="M224" s="6">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N224" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="O224">
+        <v>0.20543520000000001</v>
+      </c>
+    </row>
+    <row r="225" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
         <v>36508</v>
       </c>
@@ -9778,8 +11119,14 @@
       <c r="M225" s="6">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N225" s="6">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="O225">
+        <v>3.9319199999999999E-2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A226" s="2">
         <v>36508</v>
       </c>
@@ -9820,8 +11167,14 @@
       <c r="M226" s="6">
         <v>9.59</v>
       </c>
-    </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N226" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="O226">
+        <v>7.2542400000000007E-2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
         <v>36508</v>
       </c>
@@ -9862,8 +11215,14 @@
       <c r="M227" s="6">
         <v>9.58</v>
       </c>
-    </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N227" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="O227">
+        <v>0.68158359999999996</v>
+      </c>
+    </row>
+    <row r="228" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
         <v>36508</v>
       </c>
@@ -9904,8 +11263,14 @@
       <c r="M228" s="6">
         <v>9.4600000000000009</v>
       </c>
-    </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N228" s="6">
+        <v>0.81</v>
+      </c>
+      <c r="O228">
+        <v>0.11684</v>
+      </c>
+    </row>
+    <row r="229" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
         <v>36508</v>
       </c>
@@ -9946,8 +11311,14 @@
       <c r="M229" s="6">
         <v>9.4600000000000009</v>
       </c>
-    </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N229" s="6">
+        <v>0.26</v>
+      </c>
+      <c r="O229">
+        <v>5.0393599999999997E-2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A230" s="2">
         <v>36508</v>
       </c>
@@ -9988,8 +11359,14 @@
       <c r="M230" s="6">
         <v>9.4600000000000009</v>
       </c>
-    </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N230" s="6">
+        <v>0.46</v>
+      </c>
+      <c r="O230">
+        <v>0.28295599999999999</v>
+      </c>
+    </row>
+    <row r="231" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A231" s="2">
         <v>36508</v>
       </c>
@@ -10030,8 +11407,14 @@
       <c r="M231" s="6">
         <v>9.4600000000000009</v>
       </c>
-    </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N231" s="6">
+        <v>0.31</v>
+      </c>
+      <c r="O231">
+        <v>0.1057656</v>
+      </c>
+    </row>
+    <row r="232" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A232" s="2">
         <v>36508</v>
       </c>
@@ -10072,8 +11455,14 @@
       <c r="M232" s="6">
         <v>9.44</v>
       </c>
-    </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N232" s="6">
+        <v>0.49</v>
+      </c>
+      <c r="O232">
+        <v>0.74772519999999998</v>
+      </c>
+    </row>
+    <row r="233" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
         <v>36508</v>
       </c>
@@ -10114,8 +11503,14 @@
       <c r="M233" s="6">
         <v>9.42</v>
       </c>
-    </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N233" s="6">
+        <v>0.13</v>
+      </c>
+      <c r="O233">
+        <v>0.11684</v>
+      </c>
+    </row>
+    <row r="234" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A234" s="2">
         <v>36508</v>
       </c>
@@ -10156,8 +11551,14 @@
       <c r="M234" s="6">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N234" s="6">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="O234">
+        <v>1.056386</v>
+      </c>
+    </row>
+    <row r="235" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A235" s="2">
         <v>36508</v>
       </c>
@@ -10198,8 +11599,14 @@
       <c r="M235" s="6">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N235" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="O235">
+        <v>0.47213519999999998</v>
+      </c>
+    </row>
+    <row r="236" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A236" s="2">
         <v>36508</v>
       </c>
@@ -10240,8 +11647,14 @@
       <c r="M236" s="6">
         <v>9.4600000000000009</v>
       </c>
-    </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N236" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="O236">
+        <v>0.23865839999999999</v>
+      </c>
+    </row>
+    <row r="237" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A237" s="2">
         <v>36508</v>
       </c>
@@ -10282,8 +11695,14 @@
       <c r="M237" s="6">
         <v>9.4600000000000009</v>
       </c>
-    </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N237" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="O237">
+        <v>0.1943608</v>
+      </c>
+    </row>
+    <row r="238" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A238" s="2">
         <v>36508</v>
       </c>
@@ -10324,8 +11743,14 @@
       <c r="M238" s="6">
         <v>9.4600000000000009</v>
       </c>
-    </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N238" s="6">
+        <v>0.33</v>
+      </c>
+      <c r="O238">
+        <v>0.39369999999999999</v>
+      </c>
+    </row>
+    <row r="239" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A239" s="2">
         <v>36508</v>
       </c>
@@ -10366,8 +11791,14 @@
       <c r="M239" s="6">
         <v>9.4600000000000009</v>
       </c>
-    </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N239" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="O239">
+        <v>2.82448E-2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A240" s="2">
         <v>36508</v>
       </c>
@@ -10408,8 +11839,14 @@
       <c r="M240" s="6">
         <v>6.93</v>
       </c>
-    </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N240" s="6">
+        <v>0.38</v>
+      </c>
+      <c r="O240">
+        <v>0.15006320000000001</v>
+      </c>
+    </row>
+    <row r="241" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
         <v>36508</v>
       </c>
@@ -10450,8 +11887,14 @@
       <c r="M241" s="6">
         <v>6.96</v>
       </c>
-    </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N241" s="6">
+        <v>0.42</v>
+      </c>
+      <c r="O241">
+        <v>0.1943608</v>
+      </c>
+    </row>
+    <row r="242" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A242" s="2">
         <v>36508</v>
       </c>
@@ -10492,8 +11935,14 @@
       <c r="M242" s="6">
         <v>6.98</v>
       </c>
-    </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N242" s="6">
+        <v>0.38</v>
+      </c>
+      <c r="O242">
+        <v>0.12791440000000001</v>
+      </c>
+    </row>
+    <row r="243" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A243" s="2">
         <v>36508</v>
       </c>
@@ -10534,8 +11983,14 @@
       <c r="M243" s="6">
         <v>6.98</v>
       </c>
-    </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N243" s="6">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="O243">
+        <v>0.38262560000000001</v>
+      </c>
+    </row>
+    <row r="244" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
         <v>36508</v>
       </c>
@@ -10576,8 +12031,14 @@
       <c r="M244" s="6">
         <v>7.04</v>
       </c>
-    </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N244" s="6">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="O244" s="10">
+        <v>0.1389888</v>
+      </c>
+    </row>
+    <row r="245" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
         <v>36508</v>
       </c>
@@ -10618,8 +12079,14 @@
       <c r="M245" s="6">
         <v>7</v>
       </c>
-    </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N245" s="6">
+        <v>0.67</v>
+      </c>
+      <c r="O245">
+        <v>0.11684</v>
+      </c>
+    </row>
+    <row r="246" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
         <v>36508</v>
       </c>
@@ -10660,8 +12127,14 @@
       <c r="M246" s="6">
         <v>7</v>
       </c>
-    </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N246" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="O246" s="10">
+        <v>0.12791440000000001</v>
+      </c>
+    </row>
+    <row r="247" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A247" s="2">
         <v>36508</v>
       </c>
@@ -10702,8 +12175,14 @@
       <c r="M247" s="6">
         <v>7.02</v>
       </c>
-    </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N247" s="6">
+        <v>0.53</v>
+      </c>
+      <c r="O247">
+        <v>0.23865839999999999</v>
+      </c>
+    </row>
+    <row r="248" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A248" s="2">
         <v>36417</v>
       </c>
@@ -10744,8 +12223,14 @@
       <c r="M248" s="6">
         <v>18.57</v>
       </c>
-    </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N248" s="6">
+        <v>0.68</v>
+      </c>
+      <c r="O248" s="10">
+        <v>0.32725359999999998</v>
+      </c>
+    </row>
+    <row r="249" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
         <v>36417</v>
       </c>
@@ -10786,8 +12271,14 @@
       <c r="M249" s="6">
         <v>18.57</v>
       </c>
-    </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N249" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="O249">
+        <v>0.1057656</v>
+      </c>
+    </row>
+    <row r="250" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
         <v>36417</v>
       </c>
@@ -10828,8 +12319,14 @@
       <c r="M250" s="6">
         <v>18.57</v>
       </c>
-    </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N250" s="6">
+        <v>0.27</v>
+      </c>
+      <c r="O250" s="11">
+        <v>0.172212</v>
+      </c>
+    </row>
+    <row r="251" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A251" s="2">
         <v>36417</v>
       </c>
@@ -10870,8 +12367,14 @@
       <c r="M251" s="6">
         <v>18.57</v>
       </c>
-    </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N251" s="6">
+        <v>0.49</v>
+      </c>
+      <c r="O251">
+        <v>0.20543520000000001</v>
+      </c>
+    </row>
+    <row r="252" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A252" s="2">
         <v>36417</v>
       </c>
@@ -10912,8 +12415,14 @@
       <c r="M252" s="6">
         <v>18.57</v>
       </c>
-    </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N252" s="6">
+        <v>0.44</v>
+      </c>
+      <c r="O252">
+        <v>6.1468000000000002E-2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A253" s="2">
         <v>36417</v>
       </c>
@@ -10954,8 +12463,14 @@
       <c r="M253" s="6">
         <v>18.579999999999998</v>
       </c>
-    </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N253" s="6">
+        <v>0.21</v>
+      </c>
+      <c r="O253">
+        <v>5.0393599999999997E-2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A254" s="2">
         <v>36417</v>
       </c>
@@ -10996,8 +12511,14 @@
       <c r="M254" s="6">
         <v>18.63</v>
       </c>
-    </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N254" s="6">
+        <v>0.24</v>
+      </c>
+      <c r="O254">
+        <v>0.23865839999999999</v>
+      </c>
+    </row>
+    <row r="255" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A255" s="2">
         <v>36417</v>
       </c>
@@ -11038,8 +12559,14 @@
       <c r="M255" s="6">
         <v>18.68</v>
       </c>
-    </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N255" s="6">
+        <v>0.27</v>
+      </c>
+      <c r="O255">
+        <v>0.38262560000000001</v>
+      </c>
+    </row>
+    <row r="256" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A256" s="2">
         <v>36417</v>
       </c>
@@ -11080,8 +12607,14 @@
       <c r="M256" s="6">
         <v>18.68</v>
       </c>
-    </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N256" s="6">
+        <v>0.46</v>
+      </c>
+      <c r="O256">
+        <v>0.12791440000000001</v>
+      </c>
+    </row>
+    <row r="257" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A257" s="2">
         <v>36417</v>
       </c>
@@ -11122,8 +12655,14 @@
       <c r="M257" s="6">
         <v>18.68</v>
       </c>
-    </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N257" s="6">
+        <v>0.36</v>
+      </c>
+      <c r="O257" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
         <v>36417</v>
       </c>
@@ -11164,8 +12703,14 @@
       <c r="M258" s="6">
         <v>18.68</v>
       </c>
-    </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N258" s="6">
+        <v>0.53</v>
+      </c>
+      <c r="O258">
+        <v>0.12791440000000001</v>
+      </c>
+    </row>
+    <row r="259" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A259" s="2">
         <v>36417</v>
       </c>
@@ -11206,8 +12751,14 @@
       <c r="M259" s="6">
         <v>18.68</v>
       </c>
-    </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N259" s="6">
+        <v>0.69</v>
+      </c>
+      <c r="O259">
+        <v>0.11684</v>
+      </c>
+    </row>
+    <row r="260" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A260" s="2">
         <v>36417</v>
       </c>
@@ -11248,8 +12799,14 @@
       <c r="M260" s="6">
         <v>18.68</v>
       </c>
-    </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N260" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="O260">
+        <v>0.69260719999999998</v>
+      </c>
+    </row>
+    <row r="261" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A261" s="2">
         <v>36417</v>
       </c>
@@ -11290,8 +12847,14 @@
       <c r="M261" s="6">
         <v>18.68</v>
       </c>
-    </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N261" s="6">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="O261">
+        <v>0.36047679999999999</v>
+      </c>
+    </row>
+    <row r="262" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A262" s="2">
         <v>36417</v>
       </c>
@@ -11332,8 +12895,14 @@
       <c r="M262" s="6">
         <v>18.68</v>
       </c>
-    </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N262" s="6">
+        <v>0.44</v>
+      </c>
+      <c r="O262">
+        <v>0.11684</v>
+      </c>
+    </row>
+    <row r="263" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A263" s="2">
         <v>36417</v>
       </c>
@@ -11374,8 +12943,14 @@
       <c r="M263" s="6">
         <v>18.68</v>
       </c>
-    </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N263" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="O263">
+        <v>0.62646559999999996</v>
+      </c>
+    </row>
+    <row r="264" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A264" s="2">
         <v>36417</v>
       </c>
@@ -11416,8 +12991,14 @@
       <c r="M264" s="6">
         <v>19.62</v>
       </c>
-    </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N264" s="6">
+        <v>0.26</v>
+      </c>
+      <c r="O264">
+        <v>3.9319199999999999E-2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A265" s="2">
         <v>36417</v>
       </c>
@@ -11458,8 +13039,14 @@
       <c r="M265" s="6">
         <v>19.62</v>
       </c>
-    </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N265" s="6">
+        <v>0.35</v>
+      </c>
+      <c r="O265">
+        <v>5.0393599999999997E-2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A266" s="2">
         <v>36417</v>
       </c>
@@ -11500,8 +13087,14 @@
       <c r="M266" s="6">
         <v>19.66</v>
       </c>
-    </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N266" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="O266">
+        <v>0.45008799999999999</v>
+      </c>
+    </row>
+    <row r="267" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A267" s="2">
         <v>36417</v>
       </c>
@@ -11542,8 +13135,14 @@
       <c r="M267" s="6">
         <v>19.68</v>
       </c>
-    </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N267" s="6">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="O267">
+        <v>0.56032400000000004</v>
+      </c>
+    </row>
+    <row r="268" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
         <v>36417</v>
       </c>
@@ -11584,8 +13183,14 @@
       <c r="M268" s="6">
         <v>19.66</v>
       </c>
-    </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N268" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="O268">
+        <v>0.16113759999999999</v>
+      </c>
+    </row>
+    <row r="269" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A269" s="2">
         <v>36417</v>
       </c>
@@ -11626,8 +13231,14 @@
       <c r="M269" s="6">
         <v>20.260000000000002</v>
       </c>
-    </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N269" s="6">
+        <v>0.42</v>
+      </c>
+      <c r="O269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A270" s="2">
         <v>36417</v>
       </c>
@@ -11668,8 +13279,14 @@
       <c r="M270" s="6">
         <v>20.260000000000002</v>
       </c>
-    </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N270" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="O270">
+        <v>0.23865839999999999</v>
+      </c>
+    </row>
+    <row r="271" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A271" s="2">
         <v>36417</v>
       </c>
@@ -11710,8 +13327,14 @@
       <c r="M271" s="6">
         <v>22.44</v>
       </c>
-    </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N271" s="6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O271" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A272" s="2">
         <v>36417</v>
       </c>
@@ -11752,8 +13375,14 @@
       <c r="M272" s="6">
         <v>22.42</v>
       </c>
-    </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N272" s="6">
+        <v>0.37</v>
+      </c>
+      <c r="O272" s="11">
+        <v>0.61544200000000004</v>
+      </c>
+    </row>
+    <row r="273" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A273" s="2">
         <v>36417</v>
       </c>
@@ -11794,8 +13423,14 @@
       <c r="M273" s="6">
         <v>22.42</v>
       </c>
-    </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N273" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="O273">
+        <v>0.62646559999999996</v>
+      </c>
+    </row>
+    <row r="274" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A274" s="2">
         <v>36417</v>
       </c>
@@ -11836,8 +13471,14 @@
       <c r="M274" s="6">
         <v>22.42</v>
       </c>
-    </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N274" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="O274" s="10">
+        <v>0.3494024</v>
+      </c>
+    </row>
+    <row r="275" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A275" s="2">
         <v>36417</v>
       </c>
@@ -11878,8 +13519,14 @@
       <c r="M275" s="6">
         <v>22.47</v>
       </c>
-    </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N275" s="6">
+        <v>0.48</v>
+      </c>
+      <c r="O275" s="10">
+        <v>0.1389888</v>
+      </c>
+    </row>
+    <row r="276" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A276" s="2">
         <v>36417</v>
       </c>
@@ -11920,8 +13567,14 @@
       <c r="M276" s="6">
         <v>22.43</v>
       </c>
-    </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N276" s="6">
+        <v>0.26</v>
+      </c>
+      <c r="O276">
+        <v>7.2542400000000007E-2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A277" s="2">
         <v>36417</v>
       </c>
@@ -11962,8 +13615,14 @@
       <c r="M277" s="6">
         <v>22.47</v>
       </c>
-    </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N277" s="6">
+        <v>0.26</v>
+      </c>
+      <c r="O277">
+        <v>0.29403040000000003</v>
+      </c>
+    </row>
+    <row r="278" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A278" s="2">
         <v>36417</v>
       </c>
@@ -12004,8 +13663,14 @@
       <c r="M278" s="6">
         <v>22.47</v>
       </c>
-    </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N278" s="6">
+        <v>0.36</v>
+      </c>
+      <c r="O278">
+        <v>0.20543520000000001</v>
+      </c>
+    </row>
+    <row r="279" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A279" s="2">
         <v>36417</v>
       </c>
@@ -12046,8 +13711,14 @@
       <c r="M279" s="6">
         <v>22.4</v>
       </c>
-    </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N279" s="6">
+        <v>0.39</v>
+      </c>
+      <c r="O279">
+        <v>5.0393599999999997E-2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A280" s="2">
         <v>36417</v>
       </c>
@@ -12085,8 +13756,14 @@
         <f t="shared" si="4"/>
         <v>N</v>
       </c>
-    </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N280" s="6">
+        <v>0.39</v>
+      </c>
+      <c r="O280" s="11">
+        <v>0.50520600000000004</v>
+      </c>
+    </row>
+    <row r="281" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A281" s="2">
         <v>36417</v>
       </c>
@@ -12127,8 +13804,14 @@
       <c r="M281" s="6">
         <v>22.4</v>
       </c>
-    </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N281" s="6">
+        <v>0.35</v>
+      </c>
+      <c r="O281" s="10">
+        <v>0.1943608</v>
+      </c>
+    </row>
+    <row r="282" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A282" s="2">
         <v>36417</v>
       </c>
@@ -12169,8 +13852,14 @@
       <c r="M282" s="6">
         <v>21.95</v>
       </c>
-    </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N282" s="6">
+        <v>0.37</v>
+      </c>
+      <c r="O282" s="10">
+        <v>8.3616800000000005E-2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A283" s="2">
         <v>36417</v>
       </c>
@@ -12211,8 +13900,14 @@
       <c r="M283" s="6">
         <v>21.87</v>
       </c>
-    </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N283" s="6">
+        <v>0.39</v>
+      </c>
+      <c r="O283" s="10">
+        <v>0.16113759999999999</v>
+      </c>
+    </row>
+    <row r="284" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A284" s="2">
         <v>36417</v>
       </c>
@@ -12253,8 +13948,14 @@
       <c r="M284" s="6">
         <v>21.84</v>
       </c>
-    </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N284" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="O284" s="11">
+        <v>0.172212</v>
+      </c>
+    </row>
+    <row r="285" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A285" s="2">
         <v>36417</v>
       </c>
@@ -12295,8 +13996,14 @@
       <c r="M285" s="6">
         <v>21.82</v>
       </c>
-    </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N285" s="6">
+        <v>0.39</v>
+      </c>
+      <c r="O285">
+        <v>7.2542400000000007E-2</v>
+      </c>
+    </row>
+    <row r="286" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A286" s="2">
         <v>36417</v>
       </c>
@@ -12337,8 +14044,14 @@
       <c r="M286" s="6">
         <v>21.78</v>
       </c>
-    </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N286" s="6">
+        <v>0.41</v>
+      </c>
+      <c r="O286">
+        <v>0.11684</v>
+      </c>
+    </row>
+    <row r="287" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A287" s="2">
         <v>36417</v>
       </c>
@@ -12379,8 +14092,14 @@
       <c r="M287" s="6">
         <v>20.78</v>
       </c>
-    </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N287" s="6">
+        <v>0.41</v>
+      </c>
+      <c r="O287">
+        <v>0.1057656</v>
+      </c>
+    </row>
+    <row r="288" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A288" s="2">
         <v>36417</v>
       </c>
@@ -12421,8 +14140,14 @@
       <c r="M288" s="6">
         <v>20.78</v>
       </c>
-    </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N288" s="6">
+        <v>0.49</v>
+      </c>
+      <c r="O288">
+        <v>0.18328639999999999</v>
+      </c>
+    </row>
+    <row r="289" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A289" s="2">
         <v>36417</v>
       </c>
@@ -12463,8 +14188,14 @@
       <c r="M289" s="6">
         <v>20.74</v>
       </c>
-    </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N289" s="6">
+        <v>0.34</v>
+      </c>
+      <c r="O289">
+        <v>0.40477439999999998</v>
+      </c>
+    </row>
+    <row r="290" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A290" s="2">
         <v>36417</v>
       </c>
@@ -12505,8 +14236,14 @@
       <c r="M290" s="6">
         <v>20.73</v>
       </c>
-    </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N290" s="6">
+        <v>0.51</v>
+      </c>
+      <c r="O290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A291" s="2">
         <v>36417</v>
       </c>
@@ -12547,8 +14284,14 @@
       <c r="M291" s="6">
         <v>20.69</v>
       </c>
-    </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N291" s="6">
+        <v>0.35</v>
+      </c>
+      <c r="O291">
+        <v>0.15006320000000001</v>
+      </c>
+    </row>
+    <row r="292" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A292" s="2">
         <v>36417</v>
       </c>
@@ -12589,8 +14332,14 @@
       <c r="M292" s="6">
         <v>20.67</v>
       </c>
-    </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N292" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="O292">
+        <v>8.3616800000000005E-2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A293" s="2">
         <v>36417</v>
       </c>
@@ -12631,8 +14380,14 @@
       <c r="M293" s="6">
         <v>20.63</v>
       </c>
-    </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N293" s="6">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="O293">
+        <v>0.18328639999999999</v>
+      </c>
+    </row>
+    <row r="294" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A294" s="2">
         <v>36417</v>
       </c>
@@ -12673,8 +14428,14 @@
       <c r="M294" s="6">
         <v>19.850000000000001</v>
       </c>
-    </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N294" s="6">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="O294">
+        <v>7.2542400000000007E-2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A295" s="2">
         <v>36417</v>
       </c>
@@ -12715,8 +14476,14 @@
       <c r="M295" s="6">
         <v>19.82</v>
       </c>
-    </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N295" s="6">
+        <v>0.49</v>
+      </c>
+      <c r="O295">
+        <v>0.1389888</v>
+      </c>
+    </row>
+    <row r="296" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A296" s="2">
         <v>36417</v>
       </c>
@@ -12757,8 +14524,14 @@
       <c r="M296">
         <v>19.82</v>
       </c>
-    </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N296" s="6">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="O296">
+        <v>0.1943608</v>
+      </c>
+    </row>
+    <row r="297" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A297" s="2">
         <v>36417</v>
       </c>
@@ -12799,8 +14572,14 @@
       <c r="M297" s="6">
         <v>19.8</v>
       </c>
-    </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N297" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="O297">
+        <v>0.1389888</v>
+      </c>
+    </row>
+    <row r="298" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A298" s="2">
         <v>36417</v>
       </c>
@@ -12841,8 +14620,14 @@
       <c r="M298" s="6">
         <v>18.79</v>
       </c>
-    </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N298" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="O298">
+        <v>9.4691200000000003E-2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A299" s="2">
         <v>36417</v>
       </c>
@@ -12883,8 +14668,14 @@
       <c r="M299" s="6">
         <v>18.79</v>
       </c>
-    </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N299" s="6">
+        <v>0.41</v>
+      </c>
+      <c r="O299">
+        <v>0.20543520000000001</v>
+      </c>
+    </row>
+    <row r="300" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A300" s="2">
         <v>36417</v>
       </c>
@@ -12925,8 +14716,14 @@
       <c r="M300" s="6">
         <v>19.78</v>
       </c>
-    </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N300" s="6">
+        <v>0.51</v>
+      </c>
+      <c r="O300">
+        <v>0.2718816</v>
+      </c>
+    </row>
+    <row r="301" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A301" s="2">
         <v>36417</v>
       </c>
@@ -12967,8 +14764,14 @@
       <c r="M301" s="6">
         <v>19.78</v>
       </c>
-    </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N301" s="6">
+        <v>0.48</v>
+      </c>
+      <c r="O301">
+        <v>0.45008799999999999</v>
+      </c>
+    </row>
+    <row r="302" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A302" s="2">
         <v>36417</v>
       </c>
@@ -13009,8 +14812,14 @@
       <c r="M302" s="6">
         <v>19.78</v>
       </c>
-    </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N302" s="6">
+        <v>0.21</v>
+      </c>
+      <c r="O302">
+        <v>0.2497328</v>
+      </c>
+    </row>
+    <row r="303" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A303" s="2">
         <v>36417</v>
       </c>
@@ -13051,8 +14860,14 @@
       <c r="M303" s="6">
         <v>19.78</v>
       </c>
-    </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N303" s="6">
+        <v>0.36</v>
+      </c>
+      <c r="O303">
+        <v>0.31617919999999999</v>
+      </c>
+    </row>
+    <row r="304" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A304" s="2">
         <v>36417</v>
       </c>
@@ -13093,8 +14908,14 @@
       <c r="M304" s="6">
         <v>17.38</v>
       </c>
-    </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N304" s="6">
+        <v>0.36</v>
+      </c>
+      <c r="O304">
+        <v>0.36047679999999999</v>
+      </c>
+    </row>
+    <row r="305" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A305" s="2">
         <v>36417</v>
       </c>
@@ -13135,8 +14956,14 @@
       <c r="M305" s="6">
         <v>17.440000000000001</v>
       </c>
-    </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N305" s="6">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="O305">
+        <v>0.36047679999999999</v>
+      </c>
+    </row>
+    <row r="306" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A306" s="2">
         <v>36417</v>
       </c>
@@ -13177,8 +15004,14 @@
       <c r="M306" s="6">
         <v>17.48</v>
       </c>
-    </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N306" s="6">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="O306">
+        <v>0.5933948</v>
+      </c>
+    </row>
+    <row r="307" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A307" s="2">
         <v>36417</v>
       </c>
@@ -13219,8 +15052,14 @@
       <c r="M307" s="6">
         <v>17.510000000000002</v>
       </c>
-    </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N307" s="6">
+        <v>0.09</v>
+      </c>
+      <c r="O307" s="10">
+        <v>0.4269232</v>
+      </c>
+    </row>
+    <row r="308" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A308" s="2">
         <v>36417</v>
       </c>
@@ -13261,8 +15100,14 @@
       <c r="M308" s="6">
         <v>11.51</v>
       </c>
-    </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N308" s="6">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="O308">
+        <v>0.45008799999999999</v>
+      </c>
+    </row>
+    <row r="309" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A309" s="2">
         <v>36417</v>
       </c>
@@ -13303,8 +15148,14 @@
       <c r="M309" s="6">
         <v>17.55</v>
       </c>
-    </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N309" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="O309" s="10">
+        <v>0.54930040000000002</v>
+      </c>
+    </row>
+    <row r="310" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A310" s="2">
         <v>36417</v>
       </c>
@@ -13345,8 +15196,14 @@
       <c r="M310" s="6">
         <v>17.57</v>
       </c>
-    </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N310" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="O310">
+        <v>0.28295599999999999</v>
+      </c>
+    </row>
+    <row r="311" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A311" s="2">
         <v>36145</v>
       </c>
@@ -13387,8 +15244,14 @@
       <c r="M311" s="6">
         <v>10.34</v>
       </c>
-    </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N311" s="6">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O311">
+        <v>0.3494024</v>
+      </c>
+    </row>
+    <row r="312" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A312" s="2">
         <v>36145</v>
       </c>
@@ -13429,8 +15292,14 @@
       <c r="M312" s="6">
         <v>10.37</v>
       </c>
-    </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N312" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="O312" s="10">
+        <v>0.54930040000000002</v>
+      </c>
+    </row>
+    <row r="313" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A313" s="2">
         <v>36145</v>
       </c>
@@ -13471,8 +15340,14 @@
       <c r="M313" s="6">
         <v>10.37</v>
       </c>
-    </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N313" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="O313">
+        <v>0.38262560000000001</v>
+      </c>
+    </row>
+    <row r="314" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A314" s="2">
         <v>36145</v>
       </c>
@@ -13513,8 +15388,14 @@
       <c r="M314" s="6">
         <v>10.85</v>
       </c>
-    </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N314" s="6">
+        <v>0.27</v>
+      </c>
+      <c r="O314">
+        <v>0.33832800000000002</v>
+      </c>
+    </row>
+    <row r="315" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A315" s="2">
         <v>36145</v>
       </c>
@@ -13555,8 +15436,14 @@
       <c r="M315" s="6">
         <v>10.86</v>
       </c>
-    </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N315" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="O315">
+        <v>0.1943608</v>
+      </c>
+    </row>
+    <row r="316" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A316" s="2">
         <v>36145</v>
       </c>
@@ -13597,8 +15484,14 @@
       <c r="M316" s="6">
         <v>11.23</v>
       </c>
-    </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N316" s="6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O316">
+        <v>0.31617919999999999</v>
+      </c>
+    </row>
+    <row r="317" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A317" s="2">
         <v>36145</v>
       </c>
@@ -13639,8 +15532,14 @@
       <c r="M317" s="6">
         <v>11.35</v>
       </c>
-    </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N317" s="6">
+        <v>0.31</v>
+      </c>
+      <c r="O317">
+        <v>0.63748919999999998</v>
+      </c>
+    </row>
+    <row r="318" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A318" s="2">
         <v>36145</v>
       </c>
@@ -13681,8 +15580,14 @@
       <c r="M318" s="6">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N318" s="6">
+        <v>0.49</v>
+      </c>
+      <c r="O318">
+        <v>0.32725359999999998</v>
+      </c>
+    </row>
+    <row r="319" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A319" s="2">
         <v>36145</v>
       </c>
@@ -13723,8 +15628,14 @@
       <c r="M319" s="6">
         <v>11.28</v>
       </c>
-    </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N319" s="6">
+        <v>0.39</v>
+      </c>
+      <c r="O319" s="10">
+        <v>7.2542400000000007E-2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A320" s="2">
         <v>36145</v>
       </c>
@@ -13765,8 +15676,14 @@
       <c r="M320" s="6">
         <v>11.16</v>
       </c>
-    </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N320" s="6">
+        <v>0.41</v>
+      </c>
+      <c r="O320" s="9">
+        <v>0.11684</v>
+      </c>
+    </row>
+    <row r="321" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A321" s="2">
         <v>36145</v>
       </c>
@@ -13807,8 +15724,9 @@
       <c r="M321" s="6">
         <v>9.44</v>
       </c>
-    </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N321"/>
+    </row>
+    <row r="322" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A322" s="2">
         <v>36328</v>
       </c>
@@ -13849,8 +15767,11 @@
       <c r="M322" s="6">
         <v>16.8</v>
       </c>
-    </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N322" s="6">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="323" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A323" s="2">
         <v>36328</v>
       </c>
@@ -13891,8 +15812,14 @@
       <c r="M323">
         <v>16.73</v>
       </c>
-    </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N323" s="6">
+        <v>0.41</v>
+      </c>
+      <c r="O323" s="6">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="324" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A324" s="2">
         <v>36328</v>
       </c>
@@ -13933,8 +15860,14 @@
       <c r="M324" s="6">
         <v>16.670000000000002</v>
       </c>
-    </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N324" s="6">
+        <v>0.37</v>
+      </c>
+      <c r="O324" s="10">
+        <v>1.7170399999999999E-2</v>
+      </c>
+    </row>
+    <row r="325" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A325" s="2">
         <v>36328</v>
       </c>
@@ -13975,8 +15908,14 @@
       <c r="M325" s="6">
         <v>18.84</v>
       </c>
-    </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N325" s="6">
+        <v>0.49</v>
+      </c>
+      <c r="O325" s="11">
+        <v>6.1468000000000002E-2</v>
+      </c>
+    </row>
+    <row r="326" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A326" s="2">
         <v>36328</v>
       </c>
@@ -14017,8 +15956,14 @@
       <c r="M326" s="6">
         <v>18.940000000000001</v>
       </c>
-    </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N326" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="O326" s="10">
+        <v>0.20543520000000001</v>
+      </c>
+    </row>
+    <row r="327" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A327" s="2">
         <v>36328</v>
       </c>
@@ -14059,8 +16004,14 @@
       <c r="M327" s="6">
         <v>19.02</v>
       </c>
-    </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N327" s="6">
+        <v>0.59</v>
+      </c>
+      <c r="O327" s="10">
+        <v>0.15006320000000001</v>
+      </c>
+    </row>
+    <row r="328" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A328" s="2">
         <v>36328</v>
       </c>
@@ -14101,8 +16052,14 @@
       <c r="M328" s="6">
         <v>22.26</v>
       </c>
-    </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N328" s="6">
+        <v>0.62</v>
+      </c>
+      <c r="O328" s="11">
+        <v>0.33832800000000002</v>
+      </c>
+    </row>
+    <row r="329" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A329" s="2">
         <v>36328</v>
       </c>
@@ -14143,8 +16100,14 @@
       <c r="M329" s="6">
         <v>22.27</v>
       </c>
-    </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N329" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="O329" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A330" s="2">
         <v>36328</v>
       </c>
@@ -14185,8 +16148,14 @@
       <c r="M330" s="6">
         <v>22.31</v>
       </c>
-    </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N330" s="6">
+        <v>0.81</v>
+      </c>
+      <c r="O330">
+        <v>0.45008799999999999</v>
+      </c>
+    </row>
+    <row r="331" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A331" s="2">
         <v>36328</v>
       </c>
@@ -14227,8 +16196,14 @@
       <c r="M331" s="6">
         <v>22.35</v>
       </c>
-    </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N331" s="6">
+        <v>0.38</v>
+      </c>
+      <c r="O331" s="11">
+        <v>0.172212</v>
+      </c>
+    </row>
+    <row r="332" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A332" s="2">
         <v>36328</v>
       </c>
@@ -14266,8 +16241,14 @@
       <c r="M332">
         <v>22.38</v>
       </c>
-    </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N332" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="O332">
+        <v>1.7288256</v>
+      </c>
+    </row>
+    <row r="333" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A333" s="2">
         <v>36328</v>
       </c>
@@ -14308,8 +16289,14 @@
       <c r="M333" s="6">
         <v>22.41</v>
       </c>
-    </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N333" s="6">
+        <v>0.46</v>
+      </c>
+      <c r="O333">
+        <v>0.12791440000000001</v>
+      </c>
+    </row>
+    <row r="334" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A334" s="2">
         <v>36328</v>
       </c>
@@ -14350,8 +16337,14 @@
       <c r="M334" s="6">
         <v>22.22</v>
       </c>
-    </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N334" s="6">
+        <v>0.42</v>
+      </c>
+      <c r="O334">
+        <v>0.68158359999999996</v>
+      </c>
+    </row>
+    <row r="335" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A335" s="2">
         <v>36328</v>
       </c>
@@ -14392,8 +16385,14 @@
       <c r="M335" s="6">
         <v>22.19</v>
       </c>
-    </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N335" s="6">
+        <v>0.19</v>
+      </c>
+      <c r="O335" s="10">
+        <v>2.82448E-2</v>
+      </c>
+    </row>
+    <row r="336" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A336" s="2">
         <v>36328</v>
       </c>
@@ -14434,8 +16433,14 @@
       <c r="M336" s="6">
         <v>22.19</v>
       </c>
-    </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N336" s="6">
+        <v>0.26</v>
+      </c>
+      <c r="O336">
+        <v>0.6485128</v>
+      </c>
+    </row>
+    <row r="337" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A337" s="2">
         <v>36328</v>
       </c>
@@ -14476,8 +16481,14 @@
       <c r="M337" s="6">
         <v>22.09</v>
       </c>
-    </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N337" s="6">
+        <v>0.23</v>
+      </c>
+      <c r="O337">
+        <v>0.51622959999999996</v>
+      </c>
+    </row>
+    <row r="338" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A338" s="2">
         <v>36328</v>
       </c>
@@ -14518,8 +16529,14 @@
       <c r="M338" s="6">
         <v>22.09</v>
       </c>
-    </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N338" s="6">
+        <v>0.27</v>
+      </c>
+      <c r="O338">
+        <v>0.172212</v>
+      </c>
+    </row>
+    <row r="339" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A339" s="2">
         <v>36328</v>
       </c>
@@ -14560,8 +16577,14 @@
       <c r="M339" s="6">
         <v>22.1</v>
       </c>
-    </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N339" s="6">
+        <v>0.41</v>
+      </c>
+      <c r="O339" s="10">
+        <v>0.1389888</v>
+      </c>
+    </row>
+    <row r="340" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A340" s="2">
         <v>36328</v>
       </c>
@@ -14602,8 +16625,14 @@
       <c r="M340" s="6">
         <v>20.9</v>
       </c>
-    </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N340" s="6">
+        <v>0.36</v>
+      </c>
+      <c r="O340" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A341" s="2">
         <v>36328</v>
       </c>
@@ -14644,8 +16673,14 @@
       <c r="M341" s="6">
         <v>20.81</v>
       </c>
-    </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N341" s="6">
+        <v>0.24</v>
+      </c>
+      <c r="O341" s="11">
+        <v>6.1468000000000002E-2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A342" s="2">
         <v>36328</v>
       </c>
@@ -14686,8 +16721,14 @@
       <c r="M342" s="6">
         <v>20.8</v>
       </c>
-    </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N342" s="6">
+        <v>0.24</v>
+      </c>
+      <c r="O342">
+        <v>8.3616800000000005E-2</v>
+      </c>
+    </row>
+    <row r="343" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A343" s="2">
         <v>36328</v>
       </c>
@@ -14728,8 +16769,14 @@
       <c r="M343" s="6">
         <v>20.77</v>
       </c>
-    </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N343" s="6">
+        <v>0.63</v>
+      </c>
+      <c r="O343" s="10">
+        <v>2.82448E-2</v>
+      </c>
+    </row>
+    <row r="344" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A344" s="2">
         <v>36328</v>
       </c>
@@ -14770,8 +16817,14 @@
       <c r="M344" s="6">
         <v>20.76</v>
       </c>
-    </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N344" s="6">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="O344">
+        <v>0.15006320000000001</v>
+      </c>
+    </row>
+    <row r="345" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A345" s="2">
         <v>36328</v>
       </c>
@@ -14812,8 +16865,14 @@
       <c r="M345" s="6">
         <v>20.76</v>
       </c>
-    </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N345" s="6">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="O345" s="11">
+        <v>0.172212</v>
+      </c>
+    </row>
+    <row r="346" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A346" s="2">
         <v>36328</v>
       </c>
@@ -14854,8 +16913,14 @@
       <c r="M346" s="6">
         <v>20.62</v>
       </c>
-    </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N346" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="O346" s="10">
+        <v>0.15006320000000001</v>
+      </c>
+    </row>
+    <row r="347" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A347" s="2">
         <v>36328</v>
       </c>
@@ -14896,8 +16961,14 @@
       <c r="M347" s="6">
         <v>16.850000000000001</v>
       </c>
-    </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N347" s="6">
+        <v>0.48</v>
+      </c>
+      <c r="O347" s="10">
+        <v>0.65953640000000002</v>
+      </c>
+    </row>
+    <row r="348" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A348" s="2">
         <v>36231</v>
       </c>
@@ -14938,8 +17009,14 @@
       <c r="M348" s="6">
         <v>10.83</v>
       </c>
-    </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N348" s="6">
+        <v>0.68</v>
+      </c>
+      <c r="O348" s="9">
+        <v>0.11684</v>
+      </c>
+    </row>
+    <row r="349" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A349" s="2">
         <v>36231</v>
       </c>
@@ -14980,8 +17057,14 @@
       <c r="M349" s="6">
         <v>10.48</v>
       </c>
-    </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N349" s="6">
+        <v>0.31</v>
+      </c>
+      <c r="O349">
+        <v>1.7170399999999999E-2</v>
+      </c>
+    </row>
+    <row r="350" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A350" s="2">
         <v>36231</v>
       </c>
@@ -15022,8 +17105,14 @@
       <c r="M350" s="6">
         <v>10.48</v>
       </c>
-    </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N350" s="6">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="O350" s="10">
+        <v>0.69260719999999998</v>
+      </c>
+    </row>
+    <row r="351" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A351" s="2">
         <v>36231</v>
       </c>
@@ -15064,8 +17153,14 @@
       <c r="M351" s="6">
         <v>10.55</v>
       </c>
-    </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N351" s="6">
+        <v>0.44</v>
+      </c>
+      <c r="O351">
+        <v>8.3616800000000005E-2</v>
+      </c>
+    </row>
+    <row r="352" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A352" s="2">
         <v>36231</v>
       </c>
@@ -15106,8 +17201,14 @@
       <c r="M352" s="6">
         <v>13.01</v>
       </c>
-    </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N352" s="6">
+        <v>0.38</v>
+      </c>
+      <c r="O352">
+        <v>0.93512640000000002</v>
+      </c>
+    </row>
+    <row r="353" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A353" s="2">
         <v>36231</v>
       </c>
@@ -15148,8 +17249,14 @@
       <c r="M353" s="6">
         <v>12.44</v>
       </c>
-    </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N353" s="6">
+        <v>0.18</v>
+      </c>
+      <c r="O353" s="10">
+        <v>0.80284319999999998</v>
+      </c>
+    </row>
+    <row r="354" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A354" s="2">
         <v>36231</v>
       </c>
@@ -15190,8 +17297,14 @@
       <c r="M354" s="6">
         <v>12.44</v>
       </c>
-    </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N354" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="O354">
+        <v>0.20543520000000001</v>
+      </c>
+    </row>
+    <row r="355" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A355" s="2">
         <v>36231</v>
       </c>
@@ -15232,8 +17345,12 @@
       <c r="M355" s="6">
         <v>12.44</v>
       </c>
-    </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N355" s="6">
+        <v>0.46</v>
+      </c>
+      <c r="O355" s="6"/>
+    </row>
+    <row r="356" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A356" s="2">
         <v>36231</v>
       </c>
@@ -15274,8 +17391,14 @@
       <c r="M356" s="6">
         <v>12.51</v>
       </c>
-    </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N356" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="O356" s="10">
+        <v>0.6485128</v>
+      </c>
+    </row>
+    <row r="357" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A357" s="2">
         <v>36231</v>
       </c>
@@ -15316,8 +17439,14 @@
       <c r="M357" s="6">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N357" s="6">
+        <v>0.36</v>
+      </c>
+      <c r="O357">
+        <v>0.82489040000000002</v>
+      </c>
+    </row>
+    <row r="358" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A358" s="2">
         <v>36231</v>
       </c>
@@ -15358,8 +17487,14 @@
       <c r="M358" s="6">
         <v>13.14</v>
       </c>
-    </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N358" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="O358" s="10">
+        <v>5.0393599999999997E-2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A359" s="2">
         <v>36231</v>
       </c>
@@ -15400,8 +17535,14 @@
       <c r="M359" s="6">
         <v>13.09</v>
       </c>
-    </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N359" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="O359" s="10">
+        <v>0.1943608</v>
+      </c>
+    </row>
+    <row r="360" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A360" s="2">
         <v>36231</v>
       </c>
@@ -15442,8 +17583,14 @@
       <c r="M360" s="6">
         <v>13.09</v>
       </c>
-    </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N360" s="6">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="O360">
+        <v>0.22758400000000001</v>
+      </c>
+    </row>
+    <row r="361" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A361" s="2">
         <v>36231</v>
       </c>
@@ -15484,8 +17631,14 @@
       <c r="M361" s="6">
         <v>12.94</v>
       </c>
-    </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N361" s="6">
+        <v>0.27</v>
+      </c>
+      <c r="O361" s="10">
+        <v>0.51622959999999996</v>
+      </c>
+    </row>
+    <row r="362" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A362" s="2">
         <v>36231</v>
       </c>
@@ -15526,8 +17679,14 @@
       <c r="M362" s="6">
         <v>12.94</v>
       </c>
-    </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N362" s="6">
+        <v>0.31</v>
+      </c>
+      <c r="O362">
+        <v>0.16113759999999999</v>
+      </c>
+    </row>
+    <row r="363" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A363" s="2">
         <v>36231</v>
       </c>
@@ -15568,8 +17727,14 @@
       <c r="M363" s="6">
         <v>12.94</v>
       </c>
-    </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N363" s="6">
+        <v>0.42</v>
+      </c>
+      <c r="O363">
+        <v>0.33832800000000002</v>
+      </c>
+    </row>
+    <row r="364" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A364" s="2">
         <v>36231</v>
       </c>
@@ -15611,7 +17776,7 @@
         <v>12.94</v>
       </c>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A365" s="2">
         <v>36231</v>
       </c>
@@ -15653,7 +17818,7 @@
         <v>12.87</v>
       </c>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A366" s="2">
         <v>36231</v>
       </c>
@@ -15695,7 +17860,7 @@
         <v>12.87</v>
       </c>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A367" s="2">
         <v>36231</v>
       </c>
@@ -15737,7 +17902,7 @@
         <v>12.87</v>
       </c>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A368" s="2">
         <v>36231</v>
       </c>
